--- a/fhir/finnish-smart/StructureDefinition-fi-smart-practitioner.xlsx
+++ b/fhir/finnish-smart/StructureDefinition-fi-smart-practitioner.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T22:29:11+02:00</t>
+    <t>2025-05-11T17:07:13+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -852,18 +855,14 @@
     <t>The name(s) associated with the practitioner.</t>
   </si>
   <si>
-    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  --In general, select the value to be used in the ResourceReference.display based on this:--1. There is more than 1 name-2. Use = usual-3. Period is current to the date of the usage-4. Use = official-5. Other order as decided by internal business rules.</t>
+    <t>In some contexts, the real name of the practitioner is obscured. However this is handled, the resource must include at least some useable name for the practitioner in the name.text element</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ipa-pract-1:To be usable for a wide range of internationally available applications, the Patient.name.text SHOULD be present. {text.exists()}</t>
   </si>
   <si>
     <t>XCN Components</t>
@@ -1271,6 +1270,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1456,17 +1470,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1475,26 +1489,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="165.38671875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="142.6640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.9140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="27.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.34765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1619,7 +1633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1731,7 +1745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1845,7 +1859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2071,7 +2085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2185,7 +2199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2299,7 +2313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2527,7 +2541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2643,7 +2657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2757,7 +2771,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -2873,7 +2887,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3099,7 +3113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>172</v>
       </c>
@@ -3215,7 +3229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -3331,7 +3345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>207</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -3673,7 +3687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>226</v>
       </c>
@@ -3787,7 +3801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>236</v>
       </c>
@@ -3903,7 +3917,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>238</v>
       </c>
@@ -4015,7 +4029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>239</v>
       </c>
@@ -4129,7 +4143,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>240</v>
       </c>
@@ -4245,7 +4259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>241</v>
       </c>
@@ -4361,7 +4375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>242</v>
       </c>
@@ -4477,7 +4491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>244</v>
       </c>
@@ -4591,7 +4605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>245</v>
       </c>
@@ -4703,7 +4717,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>246</v>
       </c>
@@ -4817,7 +4831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>247</v>
       </c>
@@ -4933,7 +4947,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>249</v>
       </c>
@@ -5045,7 +5059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>250</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>251</v>
       </c>
@@ -5275,7 +5289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>252</v>
       </c>
@@ -5391,7 +5405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>253</v>
       </c>
@@ -5507,7 +5521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>255</v>
       </c>
@@ -5621,7 +5635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>256</v>
       </c>
@@ -5733,7 +5747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>257</v>
       </c>
@@ -5847,7 +5861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>258</v>
       </c>
@@ -5965,7 +5979,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>267</v>
       </c>
@@ -5978,13 +5992,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>77</v>
@@ -6066,27 +6080,27 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6109,19 +6123,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6170,7 +6184,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6185,24 +6199,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6225,19 +6239,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6286,7 +6300,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6301,24 +6315,24 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6344,14 +6358,14 @@
         <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6379,10 +6393,10 @@
         <v>178</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6400,7 +6414,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6415,24 +6429,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6455,17 +6469,17 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6514,7 +6528,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6529,24 +6543,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6569,17 +6583,17 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6628,7 +6642,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6646,21 +6660,21 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6683,13 +6697,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6740,7 +6754,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6755,24 +6769,24 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6879,12 +6893,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6993,16 +7007,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7024,10 +7038,10 @@
         <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>137</v>
@@ -7082,7 +7096,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7109,12 +7123,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7140,14 +7154,14 @@
         <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7196,7 +7210,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7214,7 +7228,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7223,12 +7237,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7254,10 +7268,10 @@
         <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7284,13 +7298,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7308,7 +7322,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -7326,21 +7340,21 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7366,14 +7380,14 @@
         <v>219</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7440,21 +7454,21 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7477,13 +7491,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7534,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7552,7 +7566,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7561,12 +7575,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7592,16 +7606,16 @@
         <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7650,7 +7664,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7665,19 +7679,37 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN54">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI53">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>